--- a/Advanced/SalesOrderMVP (.NET)/Templates/SalesOrderItem.xlsx
+++ b/Advanced/SalesOrderMVP (.NET)/Templates/SalesOrderItem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="SalesOrder">Format!$B$3:$F$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>[[Date]]</t>
   </si>
@@ -43,12 +43,6 @@
     <t>[[Customer.URI]]</t>
   </si>
   <si>
-    <t>Products:</t>
-  </si>
-  <si>
-    <t>[[Items.Count]]</t>
-  </si>
-  <si>
     <t>[[Items.Product.Name]]</t>
   </si>
   <si>
@@ -56,16 +50,19 @@
   </si>
   <si>
     <t>[[Items.Cost]]</t>
+  </si>
+  <si>
+    <t>Products:      [[Items.Count]]          Status: [[Status]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,12 +367,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +376,7 @@
   <dxfs count="1">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,7 +474,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -516,7 +508,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,14 +683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
@@ -709,13 +700,13 @@
     <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:6" ht="31.5" customHeight="1" thickBot="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
@@ -723,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
@@ -738,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -749,36 +740,33 @@
       <c r="E4" s="21"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
       <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
